--- a/도서대여 프로젝트/도서정보-테이블명세.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="저자정보 테이블" sheetId="8" r:id="rId1"/>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고정 문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>숫자 형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,6 +364,14 @@
   </si>
   <si>
     <t>대표자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변 문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -1799,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1880,7 +1880,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
@@ -1899,16 +1899,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>26</v>
@@ -1924,13 +1924,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
@@ -1950,13 +1950,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1970,16 +1970,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2174,7 +2174,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2830,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -2855,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -2878,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2936,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
@@ -2955,13 +2955,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>24</v>
@@ -2980,13 +2980,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>22</v>
@@ -3006,10 +3006,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>23</v>
@@ -3032,7 +3032,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>24</v>
@@ -3049,16 +3049,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3237,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -3942,7 +3942,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -3997,13 +3997,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -4025,7 +4025,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>24</v>
@@ -4050,7 +4050,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>21</v>
@@ -4075,10 +4075,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>26</v>
@@ -4097,13 +4097,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -4120,13 +4120,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -4143,10 +4143,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>27</v>
